--- a/results/stats/all_lectin_correlation.xlsx
+++ b/results/stats/all_lectin_correlation.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0006541303738453045</v>
+        <v>0.0006541303738453013</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003649828608403032</v>
+        <v>0.003649828608403027</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02290695135992933</v>
+        <v>0.02290695135992944</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.04848060829850614</v>
+        <v>0.04848060829850608</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.005864662348080017</v>
+        <v>0.005864662348080047</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03182761308224096</v>
+        <v>0.031827613082241</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001365843011641918</v>
+        <v>0.0001365843011641911</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0003734015639521081</v>
+        <v>0.0003734015639521059</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.891851756307742e-05</v>
+        <v>1.891851756307711e-05</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.04849817859921371</v>
+        <v>0.04849817859921362</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.02048844680671009</v>
+        <v>0.01945162138999773</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
